--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guifa\OneDrive\Bureau\M3202 - Modélisations mathématiques\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guifa\OneDrive\Bureau\Cour\Année 2\M3202 - Modélisations mathématiques\Truites et Brochets\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACF7C86-ED79-495E-9F24-D8551AABD780}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E7D152-8627-4422-800B-CBD54C24F329}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{66CF901C-C3AF-4B34-8340-F61C46D6E1C5}"/>
   </bookViews>
@@ -442,7 +442,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73288351-E7B6-4975-B3BA-CD1D97F35CD2}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -484,19 +486,19 @@
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>1000</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
         <v>200</v>
       </c>
     </row>
@@ -508,22 +510,22 @@
         <f>D3*$B$16</f>
         <v>40000000</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <f>D3*$C$16+C3*$D$16</f>
         <v>100</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="2">
         <f>M3*1500</f>
         <v>300000</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="2">
         <f>K3*$K$19</f>
         <v>0</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="2">
         <f>M3*$M$19+L3*$L$19</f>
         <v>20</v>
       </c>
@@ -536,22 +538,22 @@
         <f t="shared" ref="C5:C8" si="0">D4*$B$16</f>
         <v>4000000</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <f t="shared" ref="D5:D8" si="1">D4*$C$16+C4*$D$16</f>
         <v>4010</v>
       </c>
       <c r="J5">
         <v>2</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="2">
         <f t="shared" ref="K5:K12" si="2">M4*1500</f>
         <v>30000</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <f t="shared" ref="L5:L12" si="3">K4*$K$19</f>
         <v>900</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="2">
         <f t="shared" ref="M5:M12" si="4">M4*$M$19+L4*$L$19</f>
         <v>2</v>
       </c>
@@ -564,22 +566,22 @@
         <f t="shared" si="0"/>
         <v>160400000</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <f t="shared" si="1"/>
         <v>801</v>
       </c>
       <c r="J6">
         <v>3</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="2">
         <f t="shared" si="2"/>
         <v>3000</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="2">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="2">
         <f t="shared" si="4"/>
         <v>270.2</v>
       </c>
@@ -592,22 +594,22 @@
         <f t="shared" si="0"/>
         <v>32040000</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <f t="shared" si="1"/>
         <v>16120.1</v>
       </c>
       <c r="J7">
         <v>4</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="2">
         <f t="shared" si="2"/>
         <v>405300</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="2">
         <f t="shared" si="4"/>
         <v>54.019999999999996</v>
       </c>
@@ -620,22 +622,22 @@
         <f t="shared" si="0"/>
         <v>644804000</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <f t="shared" si="1"/>
         <v>4816.01</v>
       </c>
       <c r="J8">
         <v>5</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="2">
         <f t="shared" si="2"/>
         <v>81030</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="2">
         <f t="shared" si="3"/>
         <v>1215.9000000000001</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="2">
         <f t="shared" si="4"/>
         <v>8.1020000000000003</v>
       </c>
@@ -644,15 +646,15 @@
       <c r="J9">
         <v>6</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="2">
         <f t="shared" si="2"/>
         <v>12153</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="2">
         <f t="shared" si="3"/>
         <v>243.09</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="2">
         <f t="shared" si="4"/>
         <v>365.58020000000005</v>
       </c>
@@ -661,15 +663,15 @@
       <c r="J10">
         <v>7</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="2">
         <f t="shared" si="2"/>
         <v>548370.30000000005</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="2">
         <f t="shared" si="3"/>
         <v>36.459000000000003</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="2">
         <f t="shared" si="4"/>
         <v>109.48501999999999</v>
       </c>
@@ -678,15 +680,15 @@
       <c r="J11">
         <v>8</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="2">
         <f t="shared" si="2"/>
         <v>164227.53</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="2">
         <f t="shared" si="3"/>
         <v>1645.1109000000001</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="2">
         <f t="shared" si="4"/>
         <v>21.886202000000001</v>
       </c>
@@ -695,15 +697,15 @@
       <c r="J12">
         <v>9</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="2">
         <f t="shared" si="2"/>
         <v>32829.303</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="2">
         <f t="shared" si="3"/>
         <v>492.68259</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="2">
         <f t="shared" si="4"/>
         <v>495.72189020000002</v>
       </c>
